--- a/Sum.xlsx
+++ b/Sum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="70">
   <si>
     <t>DeliveryID</t>
   </si>
@@ -212,6 +212,18 @@
   </si>
   <si>
     <t>Missed</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Last Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jul 21 2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jul  1 2022 </t>
   </si>
 </sst>
 </file>
@@ -590,7 +602,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D254"/>
+  <dimension ref="A1:G254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,10 +611,12 @@
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,8 +629,14 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1">
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -629,8 +649,14 @@
       <c r="D2" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" s="3" customFormat="1">
+      <c r="F2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -640,7 +666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1">
+    <row r="4" spans="1:7" s="2" customFormat="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -652,7 +678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="3" customFormat="1">
+    <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -662,7 +688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1">
+    <row r="6" spans="1:7" s="2" customFormat="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -674,7 +700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="3" customFormat="1">
+    <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -684,7 +710,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="2" customFormat="1">
+    <row r="8" spans="1:7" s="2" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
@@ -694,7 +720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="3" customFormat="1">
+    <row r="9" spans="1:7" s="3" customFormat="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -706,7 +732,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="2" customFormat="1">
+    <row r="10" spans="1:7" s="2" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -716,7 +742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="3" customFormat="1">
+    <row r="11" spans="1:7" s="3" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
@@ -726,7 +752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="2" customFormat="1">
+    <row r="12" spans="1:7" s="2" customFormat="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -738,7 +764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="3" customFormat="1">
+    <row r="13" spans="1:7" s="3" customFormat="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
@@ -748,7 +774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="2" customFormat="1">
+    <row r="14" spans="1:7" s="2" customFormat="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -758,7 +784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="3" customFormat="1">
+    <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
@@ -768,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1">
+    <row r="16" spans="1:7" s="2" customFormat="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">

--- a/Sum.xlsx
+++ b/Sum.xlsx
@@ -218,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,32 +234,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF0CA86"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9AD7A4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -289,13 +270,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,7 +581,7 @@
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
   </cols>
@@ -614,8 +596,8 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
+      <c r="D1" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="F1" t="s">
         <v>62</v>
@@ -637,9 +619,6 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F2" s="2" t="s">
         <v>63</v>
       </c>
@@ -647,7 +626,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1">
+    <row r="3" spans="1:7" s="2" customFormat="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -655,7 +634,7 @@
       <c r="C3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>6</v>
       </c>
     </row>
@@ -671,7 +650,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1">
+    <row r="5" spans="1:7" s="2" customFormat="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -679,7 +658,7 @@
       <c r="C5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>14</v>
       </c>
     </row>
@@ -693,7 +672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1">
+    <row r="7" spans="1:7" s="2" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -701,7 +680,7 @@
       <c r="C7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>4</v>
       </c>
     </row>
@@ -717,7 +696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1">
+    <row r="9" spans="1:7" s="2" customFormat="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -725,7 +704,7 @@
       <c r="C9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>2</v>
       </c>
     </row>
@@ -741,13 +720,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1">
+    <row r="11" spans="1:7" s="2" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>1</v>
       </c>
     </row>
@@ -761,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1">
+    <row r="13" spans="1:7" s="2" customFormat="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>14</v>
@@ -769,7 +748,7 @@
       <c r="C13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>2</v>
       </c>
     </row>
@@ -785,13 +764,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1">
+    <row r="15" spans="1:7" s="2" customFormat="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>6</v>
       </c>
     </row>
@@ -807,7 +786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="3" customFormat="1">
+    <row r="17" spans="1:4" s="2" customFormat="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>17</v>
@@ -815,7 +794,7 @@
       <c r="C17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>2</v>
       </c>
     </row>
@@ -831,13 +810,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="3" customFormat="1">
+    <row r="19" spans="1:4" s="2" customFormat="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>1</v>
       </c>
     </row>
@@ -853,13 +832,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="3" customFormat="1">
+    <row r="21" spans="1:4" s="2" customFormat="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>1</v>
       </c>
     </row>
@@ -875,13 +854,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="3" customFormat="1">
+    <row r="23" spans="1:4" s="2" customFormat="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>4</v>
       </c>
     </row>
@@ -897,7 +876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="3" customFormat="1">
+    <row r="25" spans="1:4" s="2" customFormat="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>22</v>
@@ -905,7 +884,7 @@
       <c r="C25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>1</v>
       </c>
     </row>
@@ -921,7 +900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="3" customFormat="1">
+    <row r="27" spans="1:4" s="2" customFormat="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>24</v>
@@ -929,7 +908,7 @@
       <c r="C27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>1</v>
       </c>
     </row>
@@ -943,7 +922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="3" customFormat="1">
+    <row r="29" spans="1:4" s="2" customFormat="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>25</v>
@@ -951,7 +930,7 @@
       <c r="C29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>1</v>
       </c>
     </row>
@@ -965,7 +944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="3" customFormat="1">
+    <row r="31" spans="1:4" s="2" customFormat="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>26</v>
@@ -973,7 +952,7 @@
       <c r="C31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>10</v>
       </c>
     </row>
@@ -989,13 +968,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="3" customFormat="1">
+    <row r="33" spans="1:4" s="2" customFormat="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>7</v>
       </c>
     </row>
@@ -1011,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="3" customFormat="1">
+    <row r="35" spans="1:4" s="2" customFormat="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>29</v>
@@ -1019,7 +998,7 @@
       <c r="C35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1035,7 +1014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="3" customFormat="1">
+    <row r="37" spans="1:4" s="2" customFormat="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>31</v>
@@ -1043,7 +1022,7 @@
       <c r="C37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1057,13 +1036,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="3" customFormat="1">
+    <row r="39" spans="1:4" s="2" customFormat="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1079,13 +1058,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="3" customFormat="1">
+    <row r="41" spans="1:4" s="2" customFormat="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1099,7 +1078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="3" customFormat="1">
+    <row r="43" spans="1:4" s="2" customFormat="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>33</v>
@@ -1107,7 +1086,7 @@
       <c r="C43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>53</v>
       </c>
     </row>
@@ -1121,7 +1100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="3" customFormat="1">
+    <row r="45" spans="1:4" s="2" customFormat="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>34</v>
@@ -1129,7 +1108,7 @@
       <c r="C45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1145,13 +1124,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="3" customFormat="1">
+    <row r="47" spans="1:4" s="2" customFormat="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <v>23</v>
       </c>
     </row>
@@ -1165,7 +1144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="3" customFormat="1">
+    <row r="49" spans="1:4" s="2" customFormat="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>36</v>
@@ -1173,7 +1152,7 @@
       <c r="C49" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1189,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="3" customFormat="1">
+    <row r="51" spans="1:4" s="2" customFormat="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>38</v>
@@ -1197,7 +1176,7 @@
       <c r="C51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1213,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="3" customFormat="1">
+    <row r="53" spans="1:4" s="2" customFormat="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>40</v>
@@ -1221,7 +1200,7 @@
       <c r="C53" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1235,7 +1214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="3" customFormat="1">
+    <row r="55" spans="1:4" s="2" customFormat="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>41</v>
@@ -1243,7 +1222,7 @@
       <c r="C55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1257,7 +1236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="3" customFormat="1">
+    <row r="57" spans="1:4" s="2" customFormat="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>42</v>
@@ -1265,7 +1244,7 @@
       <c r="C57" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1281,7 +1260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="3" customFormat="1">
+    <row r="59" spans="1:4" s="2" customFormat="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>44</v>
@@ -1289,7 +1268,7 @@
       <c r="C59" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1305,7 +1284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="3" customFormat="1">
+    <row r="61" spans="1:4" s="2" customFormat="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>46</v>
@@ -1313,7 +1292,7 @@
       <c r="C61" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1329,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="3" customFormat="1">
+    <row r="63" spans="1:4" s="2" customFormat="1">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
@@ -1339,7 +1318,7 @@
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1353,7 +1332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="3" customFormat="1">
+    <row r="65" spans="1:4" s="2" customFormat="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>48</v>
@@ -1361,7 +1340,7 @@
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1377,13 +1356,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="3" customFormat="1">
+    <row r="67" spans="1:4" s="2" customFormat="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1399,13 +1378,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="3" customFormat="1">
+    <row r="69" spans="1:4" s="2" customFormat="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1421,7 +1400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="3" customFormat="1">
+    <row r="71" spans="1:4" s="2" customFormat="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>49</v>
@@ -1429,7 +1408,7 @@
       <c r="C71" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1445,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="3" customFormat="1">
+    <row r="73" spans="1:4" s="2" customFormat="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
         <v>12</v>
@@ -1453,7 +1432,7 @@
       <c r="C73" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="2">
         <v>10</v>
       </c>
     </row>
@@ -1469,13 +1448,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="3" customFormat="1">
+    <row r="75" spans="1:4" s="2" customFormat="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1491,13 +1470,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="3" customFormat="1">
+    <row r="77" spans="1:4" s="2" customFormat="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="2">
         <v>5</v>
       </c>
     </row>
@@ -1513,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="3" customFormat="1">
+    <row r="79" spans="1:4" s="2" customFormat="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
         <v>17</v>
@@ -1521,7 +1500,7 @@
       <c r="C79" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="2">
         <v>7</v>
       </c>
     </row>
@@ -1537,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="3" customFormat="1">
+    <row r="81" spans="1:4" s="2" customFormat="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
         <v>52</v>
@@ -1545,7 +1524,7 @@
       <c r="C81" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1559,7 +1538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="3" customFormat="1">
+    <row r="83" spans="1:4" s="2" customFormat="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
         <v>18</v>
@@ -1567,7 +1546,7 @@
       <c r="C83" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="2">
         <v>7</v>
       </c>
     </row>
@@ -1581,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="3" customFormat="1">
+    <row r="85" spans="1:4" s="2" customFormat="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
         <v>19</v>
@@ -1589,7 +1568,7 @@
       <c r="C85" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="2">
         <v>7</v>
       </c>
     </row>
@@ -1605,13 +1584,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="3" customFormat="1">
+    <row r="87" spans="1:4" s="2" customFormat="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1627,7 +1606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="3" customFormat="1">
+    <row r="89" spans="1:4" s="2" customFormat="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
         <v>24</v>
@@ -1635,7 +1614,7 @@
       <c r="C89" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="2">
         <v>11</v>
       </c>
     </row>
@@ -1649,7 +1628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="3" customFormat="1">
+    <row r="91" spans="1:4" s="2" customFormat="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1" t="s">
         <v>53</v>
@@ -1657,7 +1636,7 @@
       <c r="C91" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1673,13 +1652,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="3" customFormat="1">
+    <row r="93" spans="1:4" s="2" customFormat="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1695,13 +1674,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="3" customFormat="1">
+    <row r="95" spans="1:4" s="2" customFormat="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1717,7 +1696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="3" customFormat="1">
+    <row r="97" spans="1:4" s="2" customFormat="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
         <v>29</v>
@@ -1725,7 +1704,7 @@
       <c r="C97" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="2">
         <v>10</v>
       </c>
     </row>
@@ -1741,7 +1720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="3" customFormat="1">
+    <row r="99" spans="1:4" s="2" customFormat="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
         <v>31</v>
@@ -1749,7 +1728,7 @@
       <c r="C99" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="2">
         <v>42</v>
       </c>
     </row>
@@ -1765,7 +1744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="3" customFormat="1">
+    <row r="101" spans="1:4" s="2" customFormat="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1" t="s">
         <v>33</v>
@@ -1773,7 +1752,7 @@
       <c r="C101" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="2">
         <v>41</v>
       </c>
     </row>
@@ -1787,7 +1766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="3" customFormat="1">
+    <row r="103" spans="1:4" s="2" customFormat="1">
       <c r="A103" s="1"/>
       <c r="B103" s="1" t="s">
         <v>54</v>
@@ -1795,7 +1774,7 @@
       <c r="C103" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1811,13 +1790,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="3" customFormat="1">
+    <row r="105" spans="1:4" s="2" customFormat="1">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1831,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="3" customFormat="1">
+    <row r="107" spans="1:4" s="2" customFormat="1">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
         <v>36</v>
@@ -1839,7 +1818,7 @@
       <c r="C107" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="2">
         <v>3</v>
       </c>
     </row>
@@ -1855,7 +1834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="3" customFormat="1">
+    <row r="109" spans="1:4" s="2" customFormat="1">
       <c r="A109" s="1"/>
       <c r="B109" s="1" t="s">
         <v>39</v>
@@ -1863,7 +1842,7 @@
       <c r="C109" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="2">
         <v>6</v>
       </c>
     </row>
@@ -1877,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="3" customFormat="1">
+    <row r="111" spans="1:4" s="2" customFormat="1">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
         <v>41</v>
@@ -1885,7 +1864,7 @@
       <c r="C111" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1901,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="3" customFormat="1">
+    <row r="113" spans="1:4" s="2" customFormat="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1" t="s">
         <v>55</v>
@@ -1909,7 +1888,7 @@
       <c r="C113" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1925,13 +1904,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="3" customFormat="1">
+    <row r="115" spans="1:4" s="2" customFormat="1">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1947,7 +1926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="3" customFormat="1">
+    <row r="117" spans="1:4" s="2" customFormat="1">
       <c r="A117" s="1"/>
       <c r="B117" s="1" t="s">
         <v>47</v>
@@ -1955,7 +1934,7 @@
       <c r="C117" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="2">
         <v>2</v>
       </c>
     </row>

--- a/Sum.xlsx
+++ b/Sum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="65">
   <si>
     <t>DeliveryID</t>
   </si>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t xml:space="preserve">Jul 11 2022 </t>
-  </si>
-  <si>
-    <t>Totals</t>
   </si>
 </sst>
 </file>
@@ -596,8 +593,8 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>65</v>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F1" t="s">
         <v>62</v>
@@ -1938,13 +1935,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" s="2" customFormat="1">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="2">
         <v>2</v>
       </c>
     </row>

--- a/Sum.xlsx
+++ b/Sum.xlsx
@@ -1,80 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Summary"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
+    <t>MealType</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>DeliveryID</t>
   </si>
   <si>
-    <t>MealType</t>
-  </si>
-  <si>
-    <t>County</t>
-  </si>
-  <si>
-    <t>Status</t>
+    <t>Last Date</t>
+  </si>
+  <si>
+    <t>Start Date</t>
   </si>
   <si>
     <t>FROZEN 5PK D2D (MW)</t>
   </si>
   <si>
+    <t>Chickasaw County</t>
+  </si>
+  <si>
+    <t>Completed OKAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jul 13 2022 </t>
+  </si>
+  <si>
+    <t>Itawamba County</t>
+  </si>
+  <si>
+    <t>Monroe County</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancelled                                         </t>
+  </si>
+  <si>
+    <t>Not Home</t>
+  </si>
+  <si>
+    <t>Pontotoc County</t>
+  </si>
+  <si>
+    <t>Union County</t>
+  </si>
+  <si>
     <t>FROZEN 5PK D2D (STATE)</t>
   </si>
   <si>
-    <t>Chickasaw County</t>
-  </si>
-  <si>
-    <t>Itawamba County</t>
-  </si>
-  <si>
-    <t>Monroe County</t>
-  </si>
-  <si>
-    <t>Pontotoc County</t>
-  </si>
-  <si>
-    <t>Union County</t>
-  </si>
-  <si>
     <t>Lafayette County</t>
-  </si>
-  <si>
-    <t>Completed OKAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancelled                                         </t>
-  </si>
-  <si>
-    <t>Not Home</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>Last Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jul 13 2022 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,10 +86,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -109,37 +109,70 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -148,10 +181,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -189,69 +222,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -275,54 +310,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -332,7 +366,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -341,7 +375,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -350,7 +384,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -358,10 +392,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -390,7 +424,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -403,13 +437,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -427,248 +460,302 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" style="7" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="20.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="2" customFormat="1">
+      <c r="E2" s="3"/>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2">
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
+      <c r="B10" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="2">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="1"/>
+      <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" s="2" customFormat="1">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" s="2" customFormat="1">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5">
         <v>50</v>
       </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A18"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A13:A18"/>
     <mergeCell ref="B15:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
